--- a/MD/cincinnati_childrens/quality_check/cincinnati_childrens.xlsx
+++ b/MD/cincinnati_childrens/quality_check/cincinnati_childrens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/testuser/pcdc/pcdc/_dictionaries/MD/cincinnati_childrens/quality_check/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674327E9-79EC-A843-B640-CCEB9D082C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80220E10-AB68-274D-95E7-B5F3B1BC24BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67200" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -536,14 +536,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="30.1640625" customWidth="1"/>
-    <col min="4" max="4" width="41.83203125" customWidth="1"/>
+    <col min="4" max="4" width="56.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
